--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.03759266666667</v>
+        <v>12.54115633333333</v>
       </c>
       <c r="H2">
-        <v>33.112778</v>
+        <v>37.623469</v>
       </c>
       <c r="I2">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978054</v>
       </c>
       <c r="J2">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978055</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.668834</v>
+        <v>0.277297</v>
       </c>
       <c r="N2">
-        <v>2.006502</v>
+        <v>0.8318909999999999</v>
       </c>
       <c r="O2">
-        <v>0.0545526573724329</v>
+        <v>0.02566674638181813</v>
       </c>
       <c r="P2">
-        <v>0.05455265737243291</v>
+        <v>0.02566674638181813</v>
       </c>
       <c r="Q2">
-        <v>7.382317253617334</v>
+        <v>3.477625027764333</v>
       </c>
       <c r="R2">
-        <v>66.440855282556</v>
+        <v>31.298625249879</v>
       </c>
       <c r="S2">
-        <v>0.001018702318802724</v>
+        <v>0.0005433964364816935</v>
       </c>
       <c r="T2">
-        <v>0.001018702318802724</v>
+        <v>0.0005433964364816936</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.03759266666667</v>
+        <v>12.54115633333333</v>
       </c>
       <c r="H3">
-        <v>33.112778</v>
+        <v>37.623469</v>
       </c>
       <c r="I3">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978054</v>
       </c>
       <c r="J3">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978055</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.40499</v>
       </c>
       <c r="O3">
-        <v>0.0110108441004602</v>
+        <v>0.0124953577057241</v>
       </c>
       <c r="P3">
-        <v>0.0110108441004602</v>
+        <v>0.0124953577057241</v>
       </c>
       <c r="Q3">
-        <v>1.490038218024445</v>
+        <v>1.693014301145556</v>
       </c>
       <c r="R3">
-        <v>13.41034396222</v>
+        <v>15.23712871031</v>
       </c>
       <c r="S3">
-        <v>0.0002056136759853294</v>
+        <v>0.0002645420166953616</v>
       </c>
       <c r="T3">
-        <v>0.0002056136759853294</v>
+        <v>0.0002645420166953617</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.03759266666667</v>
+        <v>12.54115633333333</v>
       </c>
       <c r="H4">
-        <v>33.112778</v>
+        <v>37.623469</v>
       </c>
       <c r="I4">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978054</v>
       </c>
       <c r="J4">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978055</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.254872</v>
+        <v>4.668375</v>
       </c>
       <c r="N4">
-        <v>15.764616</v>
+        <v>14.005125</v>
       </c>
       <c r="O4">
-        <v>0.4286074448248612</v>
+        <v>0.4321070806399644</v>
       </c>
       <c r="P4">
-        <v>0.4286074448248611</v>
+        <v>0.4321070806399644</v>
       </c>
       <c r="Q4">
-        <v>58.001136651472</v>
+        <v>58.546820697625</v>
       </c>
       <c r="R4">
-        <v>522.0102298632479</v>
+        <v>526.9213862786249</v>
       </c>
       <c r="S4">
-        <v>0.008003705390891475</v>
+        <v>0.00914823578747778</v>
       </c>
       <c r="T4">
-        <v>0.008003705390891475</v>
+        <v>0.009148235787477782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.03759266666667</v>
+        <v>12.54115633333333</v>
       </c>
       <c r="H5">
-        <v>33.112778</v>
+        <v>37.623469</v>
       </c>
       <c r="I5">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978054</v>
       </c>
       <c r="J5">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978055</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.561211666666667</v>
+        <v>0.7849773333333333</v>
       </c>
       <c r="N5">
-        <v>4.683635</v>
+        <v>2.354932</v>
       </c>
       <c r="O5">
-        <v>0.1273383905984319</v>
+        <v>0.07265788713957445</v>
       </c>
       <c r="P5">
-        <v>0.1273383905984319</v>
+        <v>0.07265788713957445</v>
       </c>
       <c r="Q5">
-        <v>17.23201844311444</v>
+        <v>9.844523455456445</v>
       </c>
       <c r="R5">
-        <v>155.08816598803</v>
+        <v>88.600711099108</v>
       </c>
       <c r="S5">
-        <v>0.00237788441522889</v>
+        <v>0.001538256402529547</v>
       </c>
       <c r="T5">
-        <v>0.00237788441522889</v>
+        <v>0.001538256402529547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.03759266666667</v>
+        <v>12.54115633333333</v>
       </c>
       <c r="H6">
-        <v>33.112778</v>
+        <v>37.623469</v>
       </c>
       <c r="I6">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978054</v>
       </c>
       <c r="J6">
-        <v>0.01867374327611592</v>
+        <v>0.02117122397978055</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.640423333333333</v>
+        <v>4.938099666666667</v>
       </c>
       <c r="N6">
-        <v>13.92127</v>
+        <v>14.814299</v>
       </c>
       <c r="O6">
-        <v>0.3784906631038139</v>
+        <v>0.4570729281329188</v>
       </c>
       <c r="P6">
-        <v>0.3784906631038139</v>
+        <v>0.4570729281329188</v>
       </c>
       <c r="Q6">
-        <v>51.21910255422888</v>
+        <v>61.9294799092479</v>
       </c>
       <c r="R6">
-        <v>460.9719229880599</v>
+        <v>557.365319183231</v>
       </c>
       <c r="S6">
-        <v>0.007067837475207501</v>
+        <v>0.00967679333659616</v>
       </c>
       <c r="T6">
-        <v>0.007067837475207501</v>
+        <v>0.009676793336596162</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>1669.347351</v>
       </c>
       <c r="I7">
-        <v>0.9414179586876754</v>
+        <v>0.939363849412034</v>
       </c>
       <c r="J7">
-        <v>0.9414179586876756</v>
+        <v>0.9393638494120341</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.668834</v>
+        <v>0.277297</v>
       </c>
       <c r="N7">
-        <v>2.006502</v>
+        <v>0.8318909999999999</v>
       </c>
       <c r="O7">
-        <v>0.0545526573724329</v>
+        <v>0.02566674638181813</v>
       </c>
       <c r="P7">
-        <v>0.05455265737243291</v>
+        <v>0.02566674638181813</v>
       </c>
       <c r="Q7">
-        <v>372.172088719578</v>
+        <v>154.301670796749</v>
       </c>
       <c r="R7">
-        <v>3349.548798476203</v>
+        <v>1388.715037170741</v>
       </c>
       <c r="S7">
-        <v>0.05135685134454395</v>
+        <v>0.02411041368310707</v>
       </c>
       <c r="T7">
-        <v>0.05135685134454396</v>
+        <v>0.02411041368310708</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1669.347351</v>
       </c>
       <c r="I8">
-        <v>0.9414179586876754</v>
+        <v>0.939363849412034</v>
       </c>
       <c r="J8">
-        <v>0.9414179586876756</v>
+        <v>0.9393638494120341</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.40499</v>
       </c>
       <c r="O8">
-        <v>0.0110108441004602</v>
+        <v>0.0124953577057241</v>
       </c>
       <c r="P8">
-        <v>0.0110108441004602</v>
+        <v>0.0124953577057241</v>
       </c>
       <c r="Q8">
         <v>75.11877596461001</v>
       </c>
       <c r="R8">
-        <v>676.0689836814901</v>
+        <v>676.06898368149</v>
       </c>
       <c r="S8">
-        <v>0.01036580637648348</v>
+        <v>0.01173768731422931</v>
       </c>
       <c r="T8">
-        <v>0.01036580637648348</v>
+        <v>0.01173768731422931</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1669.347351</v>
       </c>
       <c r="I9">
-        <v>0.9414179586876754</v>
+        <v>0.939363849412034</v>
       </c>
       <c r="J9">
-        <v>0.9414179586876756</v>
+        <v>0.9393638494120341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.254872</v>
+        <v>4.668375</v>
       </c>
       <c r="N9">
-        <v>15.764616</v>
+        <v>14.005125</v>
       </c>
       <c r="O9">
-        <v>0.4286074448248612</v>
+        <v>0.4321070806399644</v>
       </c>
       <c r="P9">
-        <v>0.4286074448248611</v>
+        <v>0.4321070806399644</v>
       </c>
       <c r="Q9">
-        <v>2924.068884348024</v>
+        <v>2597.713146574875</v>
       </c>
       <c r="R9">
-        <v>26316.61995913221</v>
+        <v>23379.41831917387</v>
       </c>
       <c r="S9">
-        <v>0.4034987457853613</v>
+        <v>0.4059057706281532</v>
       </c>
       <c r="T9">
-        <v>0.4034987457853613</v>
+        <v>0.4059057706281533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1669.347351</v>
       </c>
       <c r="I10">
-        <v>0.9414179586876754</v>
+        <v>0.939363849412034</v>
       </c>
       <c r="J10">
-        <v>0.9414179586876756</v>
+        <v>0.9393638494120341</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.561211666666667</v>
+        <v>0.7849773333333333</v>
       </c>
       <c r="N10">
-        <v>4.683635</v>
+        <v>2.354932</v>
       </c>
       <c r="O10">
-        <v>0.1273383905984319</v>
+        <v>0.07265788713957445</v>
       </c>
       <c r="P10">
-        <v>0.1273383905984319</v>
+        <v>0.07265788713957445</v>
       </c>
       <c r="Q10">
-        <v>868.734853366765</v>
+        <v>436.799943998348</v>
       </c>
       <c r="R10">
-        <v>7818.613680300885</v>
+        <v>3931.199495985131</v>
       </c>
       <c r="S10">
-        <v>0.1198786477397496</v>
+        <v>0.06825219255357577</v>
       </c>
       <c r="T10">
-        <v>0.1198786477397497</v>
+        <v>0.06825219255357579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1669.347351</v>
       </c>
       <c r="I11">
-        <v>0.9414179586876754</v>
+        <v>0.939363849412034</v>
       </c>
       <c r="J11">
-        <v>0.9414179586876756</v>
+        <v>0.9393638494120341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.640423333333333</v>
+        <v>4.938099666666667</v>
       </c>
       <c r="N11">
-        <v>13.92127</v>
+        <v>14.814299</v>
       </c>
       <c r="O11">
-        <v>0.3784906631038139</v>
+        <v>0.4570729281329188</v>
       </c>
       <c r="P11">
-        <v>0.3784906631038139</v>
+        <v>0.4570729281329188</v>
       </c>
       <c r="Q11">
-        <v>2582.159466339529</v>
+        <v>2747.801199174661</v>
       </c>
       <c r="R11">
-        <v>23239.43519705577</v>
+        <v>24730.21079257195</v>
       </c>
       <c r="S11">
-        <v>0.3563179074415371</v>
+        <v>0.4293577852329686</v>
       </c>
       <c r="T11">
-        <v>0.3563179074415372</v>
+        <v>0.4293577852329686</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3432</v>
+        <v>1.750772333333333</v>
       </c>
       <c r="H12">
-        <v>1.0296</v>
+        <v>5.252317</v>
       </c>
       <c r="I12">
-        <v>0.0005806364563277943</v>
+        <v>0.002955548294066371</v>
       </c>
       <c r="J12">
-        <v>0.0005806364563277944</v>
+        <v>0.002955548294066372</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.668834</v>
+        <v>0.277297</v>
       </c>
       <c r="N12">
-        <v>2.006502</v>
+        <v>0.8318909999999999</v>
       </c>
       <c r="O12">
-        <v>0.0545526573724329</v>
+        <v>0.02566674638181813</v>
       </c>
       <c r="P12">
-        <v>0.05455265737243291</v>
+        <v>0.02566674638181813</v>
       </c>
       <c r="Q12">
-        <v>0.2295438288</v>
+        <v>0.4854839157163332</v>
       </c>
       <c r="R12">
-        <v>2.0658944592</v>
+        <v>4.369355241447</v>
       </c>
       <c r="S12">
-        <v>3.167526165999376E-05</v>
+        <v>7.585930848301677E-05</v>
       </c>
       <c r="T12">
-        <v>3.167526165999377E-05</v>
+        <v>7.585930848301681E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3432</v>
+        <v>1.750772333333333</v>
       </c>
       <c r="H13">
-        <v>1.0296</v>
+        <v>5.252317</v>
       </c>
       <c r="I13">
-        <v>0.0005806364563277943</v>
+        <v>0.002955548294066371</v>
       </c>
       <c r="J13">
-        <v>0.0005806364563277944</v>
+        <v>0.002955548294066372</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.40499</v>
       </c>
       <c r="O13">
-        <v>0.0110108441004602</v>
+        <v>0.0124953577057241</v>
       </c>
       <c r="P13">
-        <v>0.0110108441004602</v>
+        <v>0.0124953577057241</v>
       </c>
       <c r="Q13">
-        <v>0.046330856</v>
+        <v>0.2363484290922222</v>
       </c>
       <c r="R13">
-        <v>0.4169777040000001</v>
+        <v>2.12713586183</v>
       </c>
       <c r="S13">
-        <v>6.393297499669013E-06</v>
+        <v>3.693063315090194E-05</v>
       </c>
       <c r="T13">
-        <v>6.393297499669014E-06</v>
+        <v>3.693063315090196E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3432</v>
+        <v>1.750772333333333</v>
       </c>
       <c r="H14">
-        <v>1.0296</v>
+        <v>5.252317</v>
       </c>
       <c r="I14">
-        <v>0.0005806364563277943</v>
+        <v>0.002955548294066371</v>
       </c>
       <c r="J14">
-        <v>0.0005806364563277944</v>
+        <v>0.002955548294066372</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.254872</v>
+        <v>4.668375</v>
       </c>
       <c r="N14">
-        <v>15.764616</v>
+        <v>14.005125</v>
       </c>
       <c r="O14">
-        <v>0.4286074448248612</v>
+        <v>0.4321070806399644</v>
       </c>
       <c r="P14">
-        <v>0.4286074448248611</v>
+        <v>0.4321070806399644</v>
       </c>
       <c r="Q14">
-        <v>1.8034720704</v>
+        <v>8.173261791625</v>
       </c>
       <c r="R14">
-        <v>16.2312486336</v>
+        <v>73.559356124625</v>
       </c>
       <c r="S14">
-        <v>0.000248865107918818</v>
+        <v>0.001277113345039447</v>
       </c>
       <c r="T14">
-        <v>0.000248865107918818</v>
+        <v>0.001277113345039447</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3432</v>
+        <v>1.750772333333333</v>
       </c>
       <c r="H15">
-        <v>1.0296</v>
+        <v>5.252317</v>
       </c>
       <c r="I15">
-        <v>0.0005806364563277943</v>
+        <v>0.002955548294066371</v>
       </c>
       <c r="J15">
-        <v>0.0005806364563277944</v>
+        <v>0.002955548294066372</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.561211666666667</v>
+        <v>0.7849773333333333</v>
       </c>
       <c r="N15">
-        <v>4.683635</v>
+        <v>2.354932</v>
       </c>
       <c r="O15">
-        <v>0.1273383905984319</v>
+        <v>0.07265788713957445</v>
       </c>
       <c r="P15">
-        <v>0.1273383905984319</v>
+        <v>0.07265788713957445</v>
       </c>
       <c r="Q15">
-        <v>0.535807844</v>
+        <v>1.374316597493778</v>
       </c>
       <c r="R15">
-        <v>4.822270596</v>
+        <v>12.368849377444</v>
       </c>
       <c r="S15">
-        <v>7.3937311871558E-05</v>
+        <v>0.0002147438943858362</v>
       </c>
       <c r="T15">
-        <v>7.393731187155802E-05</v>
+        <v>0.0002147438943858363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3432</v>
+        <v>1.750772333333333</v>
       </c>
       <c r="H16">
-        <v>1.0296</v>
+        <v>5.252317</v>
       </c>
       <c r="I16">
-        <v>0.0005806364563277943</v>
+        <v>0.002955548294066371</v>
       </c>
       <c r="J16">
-        <v>0.0005806364563277944</v>
+        <v>0.002955548294066372</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.640423333333333</v>
+        <v>4.938099666666667</v>
       </c>
       <c r="N16">
-        <v>13.92127</v>
+        <v>14.814299</v>
       </c>
       <c r="O16">
-        <v>0.3784906631038139</v>
+        <v>0.4570729281329188</v>
       </c>
       <c r="P16">
-        <v>0.3784906631038139</v>
+        <v>0.4570729281329188</v>
       </c>
       <c r="Q16">
-        <v>1.592593288</v>
+        <v>8.645488275642554</v>
       </c>
       <c r="R16">
-        <v>14.333339592</v>
+        <v>77.809394480783</v>
       </c>
       <c r="S16">
-        <v>0.0002197654773777555</v>
+        <v>0.001350901113007169</v>
       </c>
       <c r="T16">
-        <v>0.0002197654773777556</v>
+        <v>0.00135090111300717</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.927094</v>
+        <v>19.34606966666667</v>
       </c>
       <c r="H17">
-        <v>65.781282</v>
+        <v>58.038209</v>
       </c>
       <c r="I17">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="J17">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.668834</v>
+        <v>0.277297</v>
       </c>
       <c r="N17">
-        <v>2.006502</v>
+        <v>0.8318909999999999</v>
       </c>
       <c r="O17">
-        <v>0.0545526573724329</v>
+        <v>0.02566674638181813</v>
       </c>
       <c r="P17">
-        <v>0.05455265737243291</v>
+        <v>0.02566674638181813</v>
       </c>
       <c r="Q17">
-        <v>14.665585988396</v>
+        <v>5.364607080357667</v>
       </c>
       <c r="R17">
-        <v>131.990273895564</v>
+        <v>48.281463723219</v>
       </c>
       <c r="S17">
-        <v>0.002023736712975756</v>
+        <v>0.0008382468918636863</v>
       </c>
       <c r="T17">
-        <v>0.002023736712975756</v>
+        <v>0.0008382468918636865</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.927094</v>
+        <v>19.34606966666667</v>
       </c>
       <c r="H18">
-        <v>65.781282</v>
+        <v>58.038209</v>
       </c>
       <c r="I18">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="J18">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.40499</v>
       </c>
       <c r="O18">
-        <v>0.0110108441004602</v>
+        <v>0.0124953577057241</v>
       </c>
       <c r="P18">
-        <v>0.0110108441004602</v>
+        <v>0.0124953577057241</v>
       </c>
       <c r="Q18">
-        <v>2.960084599686667</v>
+        <v>2.611654918101112</v>
       </c>
       <c r="R18">
-        <v>26.64076139718</v>
+        <v>23.50489426291</v>
       </c>
       <c r="S18">
-        <v>0.0004084686341643573</v>
+        <v>0.0004080842426902976</v>
       </c>
       <c r="T18">
-        <v>0.0004084686341643574</v>
+        <v>0.0004080842426902977</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.927094</v>
+        <v>19.34606966666667</v>
       </c>
       <c r="H19">
-        <v>65.781282</v>
+        <v>58.038209</v>
       </c>
       <c r="I19">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="J19">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.254872</v>
+        <v>4.668375</v>
       </c>
       <c r="N19">
-        <v>15.764616</v>
+        <v>14.005125</v>
       </c>
       <c r="O19">
-        <v>0.4286074448248612</v>
+        <v>0.4321070806399644</v>
       </c>
       <c r="P19">
-        <v>0.4286074448248611</v>
+        <v>0.4321070806399644</v>
       </c>
       <c r="Q19">
-        <v>115.224072301968</v>
+        <v>90.31470798012501</v>
       </c>
       <c r="R19">
-        <v>1037.016650717712</v>
+        <v>812.832371821125</v>
       </c>
       <c r="S19">
-        <v>0.01590002510097922</v>
+        <v>0.01411212827331034</v>
       </c>
       <c r="T19">
-        <v>0.01590002510097922</v>
+        <v>0.01411212827331034</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.927094</v>
+        <v>19.34606966666667</v>
       </c>
       <c r="H20">
-        <v>65.781282</v>
+        <v>58.038209</v>
       </c>
       <c r="I20">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="J20">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.561211666666667</v>
+        <v>0.7849773333333333</v>
       </c>
       <c r="N20">
-        <v>4.683635</v>
+        <v>2.354932</v>
       </c>
       <c r="O20">
-        <v>0.1273383905984319</v>
+        <v>0.07265788713957445</v>
       </c>
       <c r="P20">
-        <v>0.1273383905984319</v>
+        <v>0.07265788713957445</v>
       </c>
       <c r="Q20">
-        <v>34.23283496889667</v>
+        <v>15.18622617742089</v>
       </c>
       <c r="R20">
-        <v>308.09551472007</v>
+        <v>136.676035596788</v>
       </c>
       <c r="S20">
-        <v>0.004723864765486504</v>
+        <v>0.002372924372965129</v>
       </c>
       <c r="T20">
-        <v>0.004723864765486505</v>
+        <v>0.00237292437296513</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.927094</v>
+        <v>19.34606966666667</v>
       </c>
       <c r="H21">
-        <v>65.781282</v>
+        <v>58.038209</v>
       </c>
       <c r="I21">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="J21">
-        <v>0.03709694101901644</v>
+        <v>0.03265886838144338</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.640423333333333</v>
+        <v>4.938099666666667</v>
       </c>
       <c r="N21">
-        <v>13.92127</v>
+        <v>14.814299</v>
       </c>
       <c r="O21">
-        <v>0.3784906631038139</v>
+        <v>0.4570729281329188</v>
       </c>
       <c r="P21">
-        <v>0.3784906631038139</v>
+        <v>0.4570729281329188</v>
       </c>
       <c r="Q21">
-        <v>101.7509986297933</v>
+        <v>95.5328201722768</v>
       </c>
       <c r="R21">
-        <v>915.75898766814</v>
+        <v>859.795381550491</v>
       </c>
       <c r="S21">
-        <v>0.0140408458054106</v>
+        <v>0.01492748460061392</v>
       </c>
       <c r="T21">
-        <v>0.01404084580541061</v>
+        <v>0.01492748460061393</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.318524333333333</v>
+        <v>2.280919</v>
       </c>
       <c r="H22">
-        <v>3.955573</v>
+        <v>6.842757</v>
       </c>
       <c r="I22">
-        <v>0.002230720560864318</v>
+        <v>0.003850509932675564</v>
       </c>
       <c r="J22">
-        <v>0.002230720560864319</v>
+        <v>0.003850509932675565</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.668834</v>
+        <v>0.277297</v>
       </c>
       <c r="N22">
-        <v>2.006502</v>
+        <v>0.8318909999999999</v>
       </c>
       <c r="O22">
-        <v>0.0545526573724329</v>
+        <v>0.02566674638181813</v>
       </c>
       <c r="P22">
-        <v>0.05455265737243291</v>
+        <v>0.02566674638181813</v>
       </c>
       <c r="Q22">
-        <v>0.8818739039606668</v>
+        <v>0.6324919959429999</v>
       </c>
       <c r="R22">
-        <v>7.936865135646001</v>
+        <v>5.692427963486999</v>
       </c>
       <c r="S22">
-        <v>0.0001216917344504725</v>
+        <v>9.883006188265529E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001216917344504726</v>
+        <v>9.883006188265533E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.318524333333333</v>
+        <v>2.280919</v>
       </c>
       <c r="H23">
-        <v>3.955573</v>
+        <v>6.842757</v>
       </c>
       <c r="I23">
-        <v>0.002230720560864318</v>
+        <v>0.003850509932675564</v>
       </c>
       <c r="J23">
-        <v>0.002230720560864319</v>
+        <v>0.003850509932675565</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.40499</v>
       </c>
       <c r="O23">
-        <v>0.0110108441004602</v>
+        <v>0.0124953577057241</v>
       </c>
       <c r="P23">
-        <v>0.0110108441004602</v>
+        <v>0.0124953577057241</v>
       </c>
       <c r="Q23">
-        <v>0.1779963899188889</v>
+        <v>0.3079164619366667</v>
       </c>
       <c r="R23">
-        <v>1.60196750927</v>
+        <v>2.77124815743</v>
       </c>
       <c r="S23">
-        <v>2.456211632736816E-05</v>
+        <v>4.811349895822479E-05</v>
       </c>
       <c r="T23">
-        <v>2.456211632736816E-05</v>
+        <v>4.811349895822481E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.318524333333333</v>
+        <v>2.280919</v>
       </c>
       <c r="H24">
-        <v>3.955573</v>
+        <v>6.842757</v>
       </c>
       <c r="I24">
-        <v>0.002230720560864318</v>
+        <v>0.003850509932675564</v>
       </c>
       <c r="J24">
-        <v>0.002230720560864319</v>
+        <v>0.003850509932675565</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.254872</v>
+        <v>4.668375</v>
       </c>
       <c r="N24">
-        <v>15.764616</v>
+        <v>14.005125</v>
       </c>
       <c r="O24">
-        <v>0.4286074448248612</v>
+        <v>0.4321070806399644</v>
       </c>
       <c r="P24">
-        <v>0.4286074448248611</v>
+        <v>0.4321070806399644</v>
       </c>
       <c r="Q24">
-        <v>6.928676600552</v>
+        <v>10.648185236625</v>
       </c>
       <c r="R24">
-        <v>62.358089404968</v>
+        <v>95.833667129625</v>
       </c>
       <c r="S24">
-        <v>0.0009561034397103367</v>
+        <v>0.001663832605983624</v>
       </c>
       <c r="T24">
-        <v>0.0009561034397103367</v>
+        <v>0.001663832605983624</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.318524333333333</v>
+        <v>2.280919</v>
       </c>
       <c r="H25">
-        <v>3.955573</v>
+        <v>6.842757</v>
       </c>
       <c r="I25">
-        <v>0.002230720560864318</v>
+        <v>0.003850509932675564</v>
       </c>
       <c r="J25">
-        <v>0.002230720560864319</v>
+        <v>0.003850509932675565</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.561211666666667</v>
+        <v>0.7849773333333333</v>
       </c>
       <c r="N25">
-        <v>4.683635</v>
+        <v>2.354932</v>
       </c>
       <c r="O25">
-        <v>0.1273383905984319</v>
+        <v>0.07265788713957445</v>
       </c>
       <c r="P25">
-        <v>0.1273383905984319</v>
+        <v>0.07265788713957445</v>
       </c>
       <c r="Q25">
-        <v>2.058495571983889</v>
+        <v>1.790469714169333</v>
       </c>
       <c r="R25">
-        <v>18.526460147855</v>
+        <v>16.114227427524</v>
       </c>
       <c r="S25">
-        <v>0.0002840563660952936</v>
+        <v>0.0002797699161181516</v>
       </c>
       <c r="T25">
-        <v>0.0002840563660952937</v>
+        <v>0.0002797699161181516</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.318524333333333</v>
+        <v>2.280919</v>
       </c>
       <c r="H26">
-        <v>3.955573</v>
+        <v>6.842757</v>
       </c>
       <c r="I26">
-        <v>0.002230720560864318</v>
+        <v>0.003850509932675564</v>
       </c>
       <c r="J26">
-        <v>0.002230720560864319</v>
+        <v>0.003850509932675565</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.640423333333333</v>
+        <v>4.938099666666667</v>
       </c>
       <c r="N26">
-        <v>13.92127</v>
+        <v>14.814299</v>
       </c>
       <c r="O26">
-        <v>0.3784906631038139</v>
+        <v>0.4570729281329188</v>
       </c>
       <c r="P26">
-        <v>0.3784906631038139</v>
+        <v>0.4570729281329188</v>
       </c>
       <c r="Q26">
-        <v>6.118511081967777</v>
+        <v>11.26340535359367</v>
       </c>
       <c r="R26">
-        <v>55.06659973770999</v>
+        <v>101.370648182343</v>
       </c>
       <c r="S26">
-        <v>0.0008443069042808475</v>
+        <v>0.001759963849732908</v>
       </c>
       <c r="T26">
-        <v>0.0008443069042808476</v>
+        <v>0.001759963849732909</v>
       </c>
     </row>
   </sheetData>
